--- a/src/Doctor_staff.xlsx
+++ b/src/Doctor_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Staff ID</t>
   </si>
@@ -50,12 +50,31 @@
   </si>
   <si>
     <t>Emily Clarke</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>Xu Shuwei</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -415,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -423,8 +442,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="24.7109375"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -445,37 +464,54 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>38</v>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
